--- a/Dokumentation/Iteration v20/Iteration 5.xlsx
+++ b/Dokumentation/Iteration v20/Iteration 5.xlsx
@@ -274,15 +274,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -591,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,20 +619,20 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -640,382 +640,382 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
         <v>1.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>5.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="6">
-        <v>2</v>
-      </c>
-      <c r="E13" s="6">
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
         <v>1.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
         <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C27" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="5">
+      <c r="C28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4">
         <v>3</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <f>SUM(D9:D28)</f>
         <v>40.5</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f>SUM(E9:E28)</f>
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>101</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>94.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4">
         <v>240</v>
       </c>
     </row>
@@ -1025,384 +1025,390 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D38" s="5">
+      <c r="C38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="4">
         <v>1.5</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D39" s="5">
-        <v>2</v>
-      </c>
-      <c r="E39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5">
-        <v>2</v>
-      </c>
-      <c r="E40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="6">
+      <c r="C42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="5">
         <v>2.5</v>
       </c>
-      <c r="E42" s="6"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="6">
+      <c r="C43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D43" s="5">
         <v>1.5</v>
       </c>
-      <c r="E43" s="6"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" s="6">
+      <c r="C44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="5">
         <v>1.5</v>
       </c>
-      <c r="E44" s="6"/>
+      <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="5">
-        <v>2</v>
-      </c>
-      <c r="E45" s="5"/>
+      <c r="C45" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="5">
-        <v>2</v>
-      </c>
-      <c r="E46" s="5"/>
+      <c r="C46" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="5">
+      <c r="C48" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="4">
         <v>1.5</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D49" s="5">
+      <c r="C49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" s="4">
         <v>5</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51" s="5"/>
+      <c r="C51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="4">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D52" s="5">
-        <v>2</v>
-      </c>
-      <c r="E52" s="5"/>
+      <c r="C52" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="5">
+      <c r="C53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D53" s="4">
         <v>3</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="5">
+      <c r="C54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" s="4">
         <v>3</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="5">
-        <v>2</v>
-      </c>
-      <c r="E55" s="5"/>
+      <c r="C55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="5">
-        <v>1</v>
-      </c>
-      <c r="E56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="5" t="s">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="5">
+      <c r="C58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4">
         <v>2.5</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D59" s="5">
+      <c r="C59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="4">
         <v>2.5</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5" t="s">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <f>SUM(D39:D59)</f>
         <v>40</v>
       </c>
-      <c r="E60" s="5">
-        <f>SUM(E39:E59)</f>
-        <v>0</v>
+      <c r="E60" s="4">
+        <f>SUM(E37:E59)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="7" t="s">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>141.5</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="4">
         <v>133.5</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4">
         <v>240</v>
       </c>
     </row>

--- a/Dokumentation/Iteration v20/Iteration 5.xlsx
+++ b/Dokumentation/Iteration v20/Iteration 5.xlsx
@@ -589,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="53.28515625" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
@@ -1063,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4">
         <v>1.5</v>
@@ -1078,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D39" s="4">
         <v>2</v>
@@ -1093,13 +1093,13 @@
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D40" s="4">
         <v>2</v>
       </c>
       <c r="E40" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,12 +1110,14 @@
         <v>44</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41" s="4"/>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
@@ -1130,7 +1132,9 @@
       <c r="D42" s="5">
         <v>2.5</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="E42" s="5">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
@@ -1342,15 +1346,21 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2.5</v>
+      </c>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>39</v>
@@ -1362,53 +1372,40 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>39</v>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D59" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E59" s="4"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <f>SUM(D39:D58)</f>
+        <v>40</v>
+      </c>
+      <c r="E59" s="4">
+        <f>SUM(E37:E58)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>12</v>
+      <c r="C60" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D60" s="4">
-        <f>SUM(D39:D59)</f>
-        <v>40</v>
+        <v>141.5</v>
       </c>
       <c r="E60" s="4">
-        <f>SUM(E37:E59)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4">
-        <v>141.5</v>
-      </c>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="E61" s="4">
-        <v>133.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4">
         <v>240</v>
       </c>
     </row>

--- a/Dokumentation/Iteration v20/Iteration 5.xlsx
+++ b/Dokumentation/Iteration v20/Iteration 5.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14310" windowHeight="5685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>Analys av föregående iteration</t>
   </si>
@@ -178,12 +178,6 @@
     <t>P1.3.1 Inställningar</t>
   </si>
   <si>
-    <t>K1.3 Grundspel</t>
-  </si>
-  <si>
-    <t>Grafik för de olika plattorna</t>
-  </si>
-  <si>
     <t>P6 Power-ups</t>
   </si>
   <si>
@@ -212,6 +206,12 @@
   </si>
   <si>
     <t>Nu är det dags att öka variationen lite i spelet genom att lägga till lite fler typer av brickor och olika färg på dem. Power-ups blir nog fokuset den här veckan och sen strax efter kommer svårighetsgrader. Först måste jag göra testning som jag inte gjorde förra iterationen.  Förutom det så kommer lite smågrejer som ett par nivåer, att kunna stänga av och sätta på ljudet och lite grafik.</t>
+  </si>
+  <si>
+    <t>Lägg till val för fullskärm och vsync</t>
+  </si>
+  <si>
+    <t>Tänk ut hur power-up systemet ska byggas</t>
   </si>
 </sst>
 </file>
@@ -589,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="O52" sqref="O52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1127,7 +1127,7 @@
         <v>45</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5">
         <v>2.5</v>
@@ -1144,12 +1144,14 @@
         <v>47</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5">
         <v>1.5</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
@@ -1159,12 +1161,14 @@
         <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D44" s="5">
         <v>1.5</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="E44" s="5">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
@@ -1174,12 +1178,14 @@
         <v>49</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -1189,223 +1195,264 @@
         <v>52</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D46" s="4">
         <v>2</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D48" s="4">
         <v>1.5</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D49" s="4">
-        <v>5</v>
-      </c>
-      <c r="E49" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="E50" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D52" s="4">
-        <v>2</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4">
-        <v>3</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D54" s="4">
         <v>3</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="4">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="B56" s="4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4">
         <v>2.5</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="4">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
+      <c r="B59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D59" s="4">
-        <f>SUM(D39:D58)</f>
-        <v>40</v>
+        <v>2.5</v>
       </c>
       <c r="E59" s="4">
-        <f>SUM(E37:E58)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="6" t="s">
-        <v>13</v>
+      <c r="C60" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D60" s="4">
-        <v>141.5</v>
+        <f>SUM(D39:D59)</f>
+        <v>40</v>
       </c>
       <c r="E60" s="4">
-        <v>133.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <f>SUM(E37:E59)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="4">
+        <v>141.5</v>
+      </c>
+      <c r="E61" s="4">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4">
         <v>240</v>
       </c>
     </row>
